--- a/AI-Testplan.xlsx
+++ b/AI-Testplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\AI-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0BD5F5-1CBD-4529-88AA-782B122CC1D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4971A3-D7F9-4A77-AF33-3F8B4B3BFD67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TEST PLAN</t>
   </si>
@@ -42,34 +42,37 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Pre-Requisite</t>
-  </si>
-  <si>
-    <t>Steps to be followed</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
     <t>Kevin Buchholz</t>
   </si>
   <si>
-    <t>Camera movement</t>
-  </si>
-  <si>
-    <t>player in scene</t>
-  </si>
-  <si>
-    <t>Input keyboard and mouse to camera transform</t>
-  </si>
-  <si>
-    <t>camera transform translates and rotates according to input</t>
-  </si>
-  <si>
-    <t>AI Assessment</t>
+    <t>Check if agent is in blue team</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Player red sequence walks to blue flag, Player blue sequence walks to red flag</t>
+  </si>
+  <si>
+    <t>Behaviour Tree does not exit first sequence</t>
+  </si>
+  <si>
+    <t>Scenario / Task</t>
+  </si>
+  <si>
+    <t>AI Assessment Behaviour Tree</t>
+  </si>
+  <si>
+    <t>Agent tries to steal flag</t>
+  </si>
+  <si>
+    <t>Expectation / Condition</t>
+  </si>
+  <si>
+    <t>When agent sees flag in its radius it will steal it</t>
+  </si>
+  <si>
+    <t>Agent tries to collect flag even if its not there</t>
   </si>
 </sst>
 </file>
@@ -265,43 +268,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,13 +610,13 @@
   <sheetData>
     <row r="1" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -629,15 +632,15 @@
       <c r="AE2"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -648,15 +651,15 @@
       <c r="AE3"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -667,50 +670,60 @@
       <c r="AE4"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="2"/>
+      <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="2:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+    <row r="6" spans="2:31" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
+      <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="2:31" s="2" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:31" s="2" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="8" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1046,12 +1059,49 @@
     <row r="340" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="341" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="342" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="343" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="344" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="345" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="346" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="347" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="348" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B343"/>
+      <c r="C343"/>
+      <c r="D343"/>
+      <c r="E343"/>
+      <c r="F343"/>
+    </row>
+    <row r="344" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B344"/>
+      <c r="C344"/>
+      <c r="D344"/>
+      <c r="E344"/>
+      <c r="F344"/>
+    </row>
+    <row r="345" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B345"/>
+      <c r="C345"/>
+      <c r="D345"/>
+      <c r="E345"/>
+      <c r="F345"/>
+    </row>
+    <row r="346" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B346"/>
+      <c r="C346"/>
+      <c r="D346"/>
+      <c r="E346"/>
+      <c r="F346"/>
+    </row>
+    <row r="347" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B347"/>
+      <c r="C347"/>
+      <c r="D347"/>
+      <c r="E347"/>
+      <c r="F347"/>
+    </row>
+    <row r="348" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B348"/>
+      <c r="C348"/>
+      <c r="D348"/>
+      <c r="E348"/>
+      <c r="F348"/>
+      <c r="G348"/>
+    </row>
     <row r="349" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B349"/>
       <c r="C349"/>
@@ -1063,12 +1113,13 @@
       <c r="I349"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
   </mergeCells>

--- a/AI-Testplan.xlsx
+++ b/AI-Testplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\AI-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4971A3-D7F9-4A77-AF33-3F8B4B3BFD67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D789D-9C21-4B14-AD50-2F390AD8F595}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1692" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
   <si>
     <t>TEST PLAN</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Kevin Buchholz</t>
   </si>
   <si>
-    <t>Check if agent is in blue team</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Player red sequence walks to blue flag, Player blue sequence walks to red flag</t>
   </si>
   <si>
@@ -73,6 +67,42 @@
   </si>
   <si>
     <t>Agent tries to collect flag even if its not there</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Sequence will be executed until enemy check condition fails</t>
+  </si>
+  <si>
+    <t>Repeater is not calling sequence again</t>
+  </si>
+  <si>
+    <t>When enemy agent comes closer, attack node will be executed</t>
+  </si>
+  <si>
+    <t>Check if agent is on a specific team</t>
+  </si>
+  <si>
+    <t>Attack enemy while moving to a position</t>
+  </si>
+  <si>
+    <t>Agent ignores the interruptable Action</t>
+  </si>
+  <si>
+    <t>Enemy captures friendly flag</t>
+  </si>
+  <si>
+    <t>Friendly agents start chasing and attacking enemy</t>
+  </si>
+  <si>
+    <t>Friendly flag is not in friendly base</t>
+  </si>
+  <si>
+    <t>Agent goes to flag and brings it back</t>
+  </si>
+  <si>
+    <t>Fight enemy agent to death</t>
   </si>
 </sst>
 </file>
@@ -103,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +170,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -268,6 +304,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,12 +322,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,19 +331,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -590,7 +626,7 @@
   <dimension ref="A1:AE349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,13 +646,13 @@
   <sheetData>
     <row r="1" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -632,15 +668,15 @@
       <c r="AE2"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -651,15 +687,15 @@
       <c r="AE3"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -670,16 +706,16 @@
       <c r="AE4"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -691,16 +727,16 @@
       <c r="AE5"/>
     </row>
     <row r="6" spans="2:31" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -712,22 +748,66 @@
       <c r="AE6"/>
     </row>
     <row r="7" spans="2:31" s="2" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:31" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
     <row r="12" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1138,13 @@
     <row r="339" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="340" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="341" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="342" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="342" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B342"/>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342"/>
+      <c r="F342"/>
+    </row>
     <row r="343" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B343"/>
       <c r="C343"/>
@@ -1113,7 +1199,11 @@
       <c r="I349"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B2:F2"/>

--- a/AI-Testplan.xlsx
+++ b/AI-Testplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\AI-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4buchk18\Downloads\AI-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D789D-9C21-4B14-AD50-2F390AD8F595}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AFED63-E5FC-4CBA-9143-1E14B5E10EA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1692" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1695" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TEST PLAN</t>
   </si>
@@ -69,9 +68,6 @@
     <t>Agent tries to collect flag even if its not there</t>
   </si>
   <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
     <t>Sequence will be executed until enemy check condition fails</t>
   </si>
   <si>
@@ -103,6 +99,9 @@
   </si>
   <si>
     <t>Fight enemy agent to death</t>
+  </si>
+  <si>
+    <t>Actual Result / Possible Solutions</t>
   </si>
 </sst>
 </file>
@@ -322,6 +321,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,15 +342,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,26 +625,26 @@
   <dimension ref="A1:AE349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="31" width="9.109375" style="2"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="31" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -667,16 +666,16 @@
       <c r="AD2"/>
       <c r="AE2"/>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -686,16 +685,16 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -705,17 +704,17 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -726,9 +725,9 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="2:31" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
@@ -747,7 +746,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="2:31" s="2" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -760,427 +759,427 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:31" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:31" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:31" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="298" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="299" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="300" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="301" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="304" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="337" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="338" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="339" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="340" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="341" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="342" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="E342"/>
       <c r="F342"/>
     </row>
-    <row r="343" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
       <c r="F343"/>
     </row>
-    <row r="344" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="E344"/>
       <c r="F344"/>
     </row>
-    <row r="345" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
       <c r="F345"/>
     </row>
-    <row r="346" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="E346"/>
       <c r="F346"/>
     </row>
-    <row r="347" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="E347"/>
       <c r="F347"/>
     </row>
-    <row r="348" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348"/>
@@ -1188,7 +1187,7 @@
       <c r="F348"/>
       <c r="G348"/>
     </row>
-    <row r="349" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
@@ -1200,18 +1199,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/AI-Testplan.xlsx
+++ b/AI-Testplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4buchk18\Downloads\AI-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\AI-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AFED63-E5FC-4CBA-9143-1E14B5E10EA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A2B2B-2D1B-4E78-BDD5-6256505F5C94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1695" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4764" yWindow="1620" windowWidth="17280" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>TEST PLAN</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Kevin Buchholz</t>
   </si>
   <si>
-    <t>Player red sequence walks to blue flag, Player blue sequence walks to red flag</t>
-  </si>
-  <si>
-    <t>Behaviour Tree does not exit first sequence</t>
-  </si>
-  <si>
     <t>Scenario / Task</t>
   </si>
   <si>
@@ -77,15 +71,9 @@
     <t>When enemy agent comes closer, attack node will be executed</t>
   </si>
   <si>
-    <t>Check if agent is on a specific team</t>
-  </si>
-  <si>
     <t>Attack enemy while moving to a position</t>
   </si>
   <si>
-    <t>Agent ignores the interruptable Action</t>
-  </si>
-  <si>
     <t>Enemy captures friendly flag</t>
   </si>
   <si>
@@ -95,13 +83,16 @@
     <t>Friendly flag is not in friendly base</t>
   </si>
   <si>
-    <t>Agent goes to flag and brings it back</t>
-  </si>
-  <si>
     <t>Fight enemy agent to death</t>
   </si>
   <si>
     <t>Actual Result / Possible Solutions</t>
+  </si>
+  <si>
+    <t>Agent ignores the attack Action</t>
+  </si>
+  <si>
+    <t>Agent searches for flag and tries to bring it back</t>
   </si>
 </sst>
 </file>
@@ -303,6 +294,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -312,39 +333,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -625,33 +616,33 @@
   <dimension ref="A1:AE349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="31" width="9.140625" style="2"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="31" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -666,16 +657,16 @@
       <c r="AD2"/>
       <c r="AE2"/>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -685,16 +676,16 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -704,17 +695,17 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -725,17 +716,17 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="2:31" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+    <row r="6" spans="2:31" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -746,12 +737,12 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="2:31" s="2" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+    <row r="7" spans="2:31" s="2" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
@@ -759,427 +750,421 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:31" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+    <row r="8" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:31" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:31" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="337" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="339" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="341" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B341"/>
+      <c r="C341"/>
+      <c r="D341"/>
+      <c r="E341"/>
+      <c r="F341"/>
+    </row>
+    <row r="342" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="E342"/>
       <c r="F342"/>
     </row>
-    <row r="343" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
       <c r="F343"/>
     </row>
-    <row r="344" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="E344"/>
       <c r="F344"/>
     </row>
-    <row r="345" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
       <c r="F345"/>
     </row>
-    <row r="346" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="E346"/>
       <c r="F346"/>
     </row>
-    <row r="347" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="E347"/>
       <c r="F347"/>
     </row>
-    <row r="348" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348"/>
@@ -1187,7 +1172,7 @@
       <c r="F348"/>
       <c r="G348"/>
     </row>
-    <row r="349" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
@@ -1198,19 +1183,18 @@
       <c r="I349"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/AI-Testplan.xlsx
+++ b/AI-Testplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\AI-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A2B2B-2D1B-4E78-BDD5-6256505F5C94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651BCA88-F9F5-4CC1-9671-AA26C9FAC3B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4764" yWindow="1620" windowWidth="17280" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,6 +294,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,15 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,7 +616,7 @@
   <dimension ref="A1:AE349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,13 +636,13 @@
   <sheetData>
     <row r="1" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -658,15 +658,15 @@
       <c r="AE2"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -677,15 +677,15 @@
       <c r="AE3"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -696,11 +696,11 @@
       <c r="AE4"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
@@ -717,11 +717,11 @@
       <c r="AE5"/>
     </row>
     <row r="6" spans="2:31" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
@@ -738,11 +738,11 @@
       <c r="AE6"/>
     </row>
     <row r="7" spans="2:31" s="2" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
@@ -751,11 +751,11 @@
       </c>
     </row>
     <row r="8" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
@@ -764,22 +764,22 @@
       </c>
     </row>
     <row r="9" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:31" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1184,17 +1184,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/AI-Testplan.xlsx
+++ b/AI-Testplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\AI-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651BCA88-F9F5-4CC1-9671-AA26C9FAC3B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77F349-91E0-47B1-850A-B60D986EEBEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4764" yWindow="1620" windowWidth="17280" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,20 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TEST PLAN</t>
   </si>
   <si>
-    <t>Created By</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>Kevin Buchholz</t>
-  </si>
-  <si>
     <t>Scenario / Task</t>
   </si>
   <si>
@@ -59,15 +53,9 @@
     <t>When agent sees flag in its radius it will steal it</t>
   </si>
   <si>
-    <t>Agent tries to collect flag even if its not there</t>
-  </si>
-  <si>
     <t>Sequence will be executed until enemy check condition fails</t>
   </si>
   <si>
-    <t>Repeater is not calling sequence again</t>
-  </si>
-  <si>
     <t>When enemy agent comes closer, attack node will be executed</t>
   </si>
   <si>
@@ -93,13 +81,52 @@
   </si>
   <si>
     <t>Agent searches for flag and tries to bring it back</t>
+  </si>
+  <si>
+    <t>Encountering Enemy while carrying enemy flag</t>
+  </si>
+  <si>
+    <t>Agent tries to avoid or fight him if enough health</t>
+  </si>
+  <si>
+    <t>Check if an enemy agent picked up flag otherwise search for it</t>
+  </si>
+  <si>
+    <t>Agent searches for health kit</t>
+  </si>
+  <si>
+    <t>Own Health very low</t>
+  </si>
+  <si>
+    <t>Agent flees or searches for power up</t>
+  </si>
+  <si>
+    <t>Agent tries to collect flag even if its not there --&gt; Check if flag is not carried by anyone or look into inventory if flag is there</t>
+  </si>
+  <si>
+    <t>Agent gets location from health kit and moves there to pick up</t>
+  </si>
+  <si>
+    <t>Agent is surrounded by to many enemies</t>
+  </si>
+  <si>
+    <t>Call flee function or get location of power up</t>
+  </si>
+  <si>
+    <t>An agent cache returns the flag carrier for other agents to get</t>
+  </si>
+  <si>
+    <t>Compare health with enemy and choose action</t>
+  </si>
+  <si>
+    <t>Repeat Node for Attack sequence until enemy is dead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +138,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +314,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -302,36 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,13 +653,13 @@
   <sheetData>
     <row r="1" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -658,15 +675,15 @@
       <c r="AE2"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -677,15 +694,17 @@
       <c r="AE3"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="13" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -695,17 +714,17 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:31" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -717,16 +736,16 @@
       <c r="AE5"/>
     </row>
     <row r="6" spans="2:31" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -738,56 +757,84 @@
       <c r="AE6"/>
     </row>
     <row r="7" spans="2:31" s="2" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="2:31" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" s="2" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" s="2" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1161,13 @@
     <row r="337" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="338" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="339" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="340" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B340"/>
+      <c r="C340"/>
+      <c r="D340"/>
+      <c r="E340"/>
+      <c r="F340"/>
+    </row>
     <row r="341" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B341"/>
       <c r="C341"/>
@@ -1183,18 +1236,19 @@
       <c r="I349"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
